--- a/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-8副本测试用例.xlsx
+++ b/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-8副本测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1760" windowWidth="3620" windowHeight="1080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1760" windowWidth="3620" windowHeight="1080" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1342">
   <si>
     <t>caseID</t>
   </si>
@@ -4979,6 +4979,18 @@
   </si>
   <si>
     <t>wangl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法攻配错</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -9451,8 +9463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12044,8 +12056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -13621,8 +13633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -15265,8 +15277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView topLeftCell="F57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -15627,7 +15639,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="73"/>
       <c r="C33" s="74"/>
       <c r="D33" s="74">
@@ -15643,7 +15655,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="73"/>
       <c r="C34" s="74"/>
       <c r="D34" s="74"/>
@@ -15655,7 +15667,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="73"/>
       <c r="C35" s="74"/>
       <c r="D35" s="74">
@@ -15671,7 +15683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="73"/>
       <c r="C36" s="74"/>
       <c r="D36" s="74"/>
@@ -15682,8 +15694,17 @@
       <c r="G36" s="70" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I36" s="7">
+        <v>468</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
       <c r="D37" s="74">
@@ -15699,7 +15720,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="73"/>
       <c r="C38" s="74"/>
       <c r="D38" s="74"/>
@@ -15711,7 +15732,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="73"/>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
@@ -15723,7 +15744,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="73"/>
       <c r="C40" s="74"/>
       <c r="D40" s="74">
@@ -15739,7 +15760,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="73"/>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -15751,7 +15772,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="73"/>
       <c r="C42" s="74"/>
@@ -15766,7 +15787,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="73"/>
       <c r="C43" s="74"/>
@@ -15775,7 +15796,7 @@
       <c r="F43" s="70"/>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="73"/>
       <c r="C44" s="74"/>
@@ -15790,7 +15811,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -15798,7 +15819,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:7" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>844</v>
       </c>
@@ -15808,7 +15829,7 @@
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="35"/>
       <c r="B47" s="35" t="s">
         <v>789</v>
@@ -15829,7 +15850,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="35"/>
       <c r="B48" s="35"/>
       <c r="C48" s="36"/>
@@ -16016,7 +16037,12 @@
       <c r="G63" s="70" t="s">
         <v>949</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I63" s="9">
+        <v>469</v>
+      </c>
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -16674,8 +16700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J350"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
